--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H2">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I2">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J2">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>3.574991495164</v>
+        <v>1.8113626901115</v>
       </c>
       <c r="R2">
-        <v>21.449948970984</v>
+        <v>7.245450760446001</v>
       </c>
       <c r="S2">
-        <v>0.00089783956166371</v>
+        <v>6.316029954690299E-06</v>
       </c>
       <c r="T2">
-        <v>0.000623413866433297</v>
+        <v>2.879711581018723E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H3">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I3">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J3">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>247.3483920137666</v>
+        <v>23.350756927325</v>
       </c>
       <c r="R3">
-        <v>2226.1355281239</v>
+        <v>140.10454156395</v>
       </c>
       <c r="S3">
-        <v>0.06212019585620749</v>
+        <v>8.142161756053291E-05</v>
       </c>
       <c r="T3">
-        <v>0.06469962975993904</v>
+        <v>5.56846888115751E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H4">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I4">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J4">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>329.9662399672247</v>
+        <v>25.09353075684</v>
       </c>
       <c r="R4">
-        <v>2969.696159705022</v>
+        <v>150.56118454104</v>
       </c>
       <c r="S4">
-        <v>0.0828692165161095</v>
+        <v>8.749848541894592E-05</v>
       </c>
       <c r="T4">
-        <v>0.08631021768668072</v>
+        <v>5.98406919196344E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H5">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I5">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J5">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>53.054081112733</v>
+        <v>5.427409205176501</v>
       </c>
       <c r="R5">
-        <v>318.324486676398</v>
+        <v>21.709636820706</v>
       </c>
       <c r="S5">
-        <v>0.01332424230803434</v>
+        <v>1.892480136827071E-05</v>
       </c>
       <c r="T5">
-        <v>0.009251672313429481</v>
+        <v>8.628516656767566E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H6">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I6">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J6">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>11.07304099552133</v>
+        <v>8.7071701680385</v>
       </c>
       <c r="R6">
-        <v>99.65736895969199</v>
+        <v>52.243021008231</v>
       </c>
       <c r="S6">
-        <v>0.002780933685339325</v>
+        <v>3.036098065955619E-05</v>
       </c>
       <c r="T6">
-        <v>0.002896407156295494</v>
+        <v>2.076404044398563E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H7">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I7">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J7">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>254.2722485163773</v>
+        <v>33.68761460156</v>
       </c>
       <c r="R7">
-        <v>2288.450236647396</v>
+        <v>202.12568760936</v>
       </c>
       <c r="S7">
-        <v>0.0638590845488759</v>
+        <v>0.0001174651460400887</v>
       </c>
       <c r="T7">
-        <v>0.06651072280397601</v>
+        <v>8.033505473636218E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H8">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I8">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J8">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>10.09335767134267</v>
+        <v>19.187285883162</v>
       </c>
       <c r="R8">
-        <v>60.560146028056</v>
+        <v>115.123715298972</v>
       </c>
       <c r="S8">
-        <v>0.002534891576556778</v>
+        <v>6.690403476279932E-05</v>
       </c>
       <c r="T8">
-        <v>0.001760099049102005</v>
+        <v>4.575603467022178E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H9">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I9">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J9">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
-        <v>698.3445396733443</v>
+        <v>247.3483920137666</v>
       </c>
       <c r="R9">
-        <v>6285.100857060099</v>
+        <v>2226.1355281239</v>
       </c>
       <c r="S9">
-        <v>0.1753854117523705</v>
+        <v>0.0008624776593511828</v>
       </c>
       <c r="T9">
-        <v>0.1826679882326695</v>
+        <v>0.0008847797705357687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H10">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I10">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J10">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>931.6014552656999</v>
+        <v>265.80913423792</v>
       </c>
       <c r="R10">
-        <v>8384.413097391298</v>
+        <v>2392.28220814128</v>
       </c>
       <c r="S10">
-        <v>0.2339666103744562</v>
+        <v>0.0009268483132848748</v>
       </c>
       <c r="T10">
-        <v>0.2436816700072039</v>
+        <v>0.0009508149330691775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H11">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I11">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J11">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>149.7888365104137</v>
+        <v>57.491110197382</v>
       </c>
       <c r="R11">
-        <v>898.733019062482</v>
+        <v>344.946661184292</v>
       </c>
       <c r="S11">
-        <v>0.03761864706434986</v>
+        <v>0.0002004654154120364</v>
       </c>
       <c r="T11">
-        <v>0.02612046429867612</v>
+        <v>0.0001370993921412007</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H12">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I12">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J12">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>31.26277738798089</v>
+        <v>92.23275060237133</v>
       </c>
       <c r="R12">
-        <v>281.364996491828</v>
+        <v>830.0947554213419</v>
       </c>
       <c r="S12">
-        <v>0.007851475558580947</v>
+        <v>0.0003216058378524942</v>
       </c>
       <c r="T12">
-        <v>0.008177494528273228</v>
+        <v>0.0003299219827121697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H13">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I13">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J13">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>717.8928267784848</v>
+        <v>356.8439913279466</v>
       </c>
       <c r="R13">
-        <v>6461.035441006365</v>
+        <v>3211.59592195152</v>
       </c>
       <c r="S13">
-        <v>0.180294857145317</v>
+        <v>0.001244277223265441</v>
       </c>
       <c r="T13">
-        <v>0.1877812898710856</v>
+        <v>0.001276451980114898</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H14">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I14">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J14">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>0.9156535133679999</v>
+        <v>130.850789187732</v>
       </c>
       <c r="R14">
-        <v>3.662614053472</v>
+        <v>785.1047351263919</v>
       </c>
       <c r="S14">
-        <v>0.0002299613719893472</v>
+        <v>0.0004562628504033652</v>
       </c>
       <c r="T14">
-        <v>0.0001064489426719212</v>
+        <v>0.0003120406545854349</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H15">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I15">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J15">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>63.35271691686665</v>
+        <v>1686.832233407266</v>
       </c>
       <c r="R15">
-        <v>380.1163015011999</v>
+        <v>15181.49010066539</v>
       </c>
       <c r="S15">
-        <v>0.01591068836493422</v>
+        <v>0.005881805434604378</v>
       </c>
       <c r="T15">
-        <v>0.01104756815663031</v>
+        <v>0.006033898277064007</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H16">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I16">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J16">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>84.51341697666267</v>
+        <v>1812.72824098912</v>
       </c>
       <c r="R16">
-        <v>507.080501859976</v>
+        <v>16314.55416890208</v>
       </c>
       <c r="S16">
-        <v>0.02122508245283203</v>
+        <v>0.006320791486047205</v>
       </c>
       <c r="T16">
-        <v>0.01473761157591055</v>
+        <v>0.006484235713231541</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H17">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I17">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J17">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>13.588607367346</v>
+        <v>392.0698939086519</v>
       </c>
       <c r="R17">
-        <v>54.35442946938399</v>
+        <v>2352.419363451912</v>
       </c>
       <c r="S17">
-        <v>0.003412704421485206</v>
+        <v>0.001367106216649996</v>
       </c>
       <c r="T17">
-        <v>0.001579738258544219</v>
+        <v>0.0009349714059651083</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H18">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I18">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J18">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>2.836109933389333</v>
+        <v>628.9961112148011</v>
       </c>
       <c r="R18">
-        <v>17.016659600336</v>
+        <v>5660.96500093321</v>
       </c>
       <c r="S18">
-        <v>0.0007122734985157104</v>
+        <v>0.002193242856057639</v>
       </c>
       <c r="T18">
-        <v>0.0004945662840305627</v>
+        <v>0.002249956146541467</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H19">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I19">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J19">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>65.12610673926133</v>
+        <v>2433.555124288746</v>
       </c>
       <c r="R19">
-        <v>390.756640435568</v>
+        <v>21901.99611859872</v>
       </c>
       <c r="S19">
-        <v>0.01635606551980342</v>
+        <v>0.00848554910913598</v>
       </c>
       <c r="T19">
-        <v>0.01135681527158654</v>
+        <v>0.008704970050237895</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H20">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I20">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J20">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>0.2567593877586667</v>
+        <v>8.032470893053501</v>
       </c>
       <c r="R20">
-        <v>1.540556326552</v>
+        <v>32.12988357221401</v>
       </c>
       <c r="S20">
-        <v>6.448371596691267E-05</v>
+        <v>2.800837570943945E-05</v>
       </c>
       <c r="T20">
-        <v>4.477419397562332E-05</v>
+        <v>1.277005404892054E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H21">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I21">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J21">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>17.76480357574444</v>
+        <v>103.5487130067583</v>
       </c>
       <c r="R21">
-        <v>159.8832321817</v>
+        <v>621.2922780405499</v>
       </c>
       <c r="S21">
-        <v>0.004461533258768384</v>
+        <v>0.0003610634008808339</v>
       </c>
       <c r="T21">
-        <v>0.004646790726032842</v>
+        <v>0.0002469332312681045</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H22">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I22">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J22">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>23.69849826765178</v>
+        <v>111.27702723956</v>
       </c>
       <c r="R22">
-        <v>213.286484408866</v>
+        <v>667.6621634373601</v>
       </c>
       <c r="S22">
-        <v>0.00595174822807252</v>
+        <v>0.0003880112145131387</v>
       </c>
       <c r="T22">
-        <v>0.006198884299592654</v>
+        <v>0.0002653629881462653</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H23">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I23">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J23">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>3.810396025565667</v>
+        <v>24.0677953141385</v>
       </c>
       <c r="R23">
-        <v>22.862376153394</v>
+        <v>96.271181256554</v>
       </c>
       <c r="S23">
-        <v>0.0009569601219994174</v>
+        <v>8.392185451169708E-05</v>
       </c>
       <c r="T23">
-        <v>0.0006644641594681581</v>
+        <v>3.826307634251119E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H24">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I24">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J24">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>0.7952766406528889</v>
+        <v>38.61186460196316</v>
       </c>
       <c r="R24">
-        <v>7.157489765876</v>
+        <v>231.671187611779</v>
       </c>
       <c r="S24">
-        <v>0.0001997293787722485</v>
+        <v>0.0001346354845243243</v>
       </c>
       <c r="T24">
-        <v>0.0002080227964615441</v>
+        <v>9.207794297575687E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H25">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I25">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J25">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>18.26208172562089</v>
+        <v>149.3874115993733</v>
       </c>
       <c r="R25">
-        <v>164.358735530588</v>
+        <v>896.32446959624</v>
       </c>
       <c r="S25">
-        <v>0.004586421946395745</v>
+        <v>0.0005208980905183658</v>
       </c>
       <c r="T25">
-        <v>0.004776865200836475</v>
+        <v>0.0003562450482084113</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4894313333333334</v>
+        <v>466.7532549999999</v>
       </c>
       <c r="H26">
-        <v>1.468294</v>
+        <v>1400.259765</v>
       </c>
       <c r="I26">
-        <v>0.06242894177260313</v>
+        <v>0.9549406025563415</v>
       </c>
       <c r="J26">
-        <v>0.06365638056049407</v>
+        <v>0.9555325630953643</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>0.9881843758413333</v>
+        <v>5057.921705209214</v>
       </c>
       <c r="R26">
-        <v>5.929106255048</v>
+        <v>30347.53023125529</v>
       </c>
       <c r="S26">
-        <v>0.0002481771014136661</v>
+        <v>0.01763643756878594</v>
       </c>
       <c r="T26">
-        <v>0.000172321484771521</v>
+        <v>0.01206165594821904</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4894313333333334</v>
+        <v>466.7532549999999</v>
       </c>
       <c r="H27">
-        <v>1.468294</v>
+        <v>1400.259765</v>
       </c>
       <c r="I27">
-        <v>0.06242894177260313</v>
+        <v>0.9549406025563415</v>
       </c>
       <c r="J27">
-        <v>0.06365638056049407</v>
+        <v>0.9555325630953643</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>68.37102038092222</v>
+        <v>65203.01038579489</v>
       </c>
       <c r="R27">
-        <v>615.3391834283</v>
+        <v>586827.0934721541</v>
       </c>
       <c r="S27">
-        <v>0.01717100783382192</v>
+        <v>0.2273559950091016</v>
       </c>
       <c r="T27">
-        <v>0.01788400429426973</v>
+        <v>0.2332350095252452</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4894313333333334</v>
+        <v>466.7532549999999</v>
       </c>
       <c r="H28">
-        <v>1.468294</v>
+        <v>1400.259765</v>
       </c>
       <c r="I28">
-        <v>0.06242894177260313</v>
+        <v>0.9549406025563415</v>
       </c>
       <c r="J28">
-        <v>0.06365638056049407</v>
+        <v>0.9555325630953643</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>91.20790450321491</v>
+        <v>70069.40938346439</v>
       </c>
       <c r="R28">
-        <v>820.8711405289341</v>
+        <v>630624.6844511795</v>
       </c>
       <c r="S28">
-        <v>0.02290636638162837</v>
+        <v>0.2443246131707484</v>
       </c>
       <c r="T28">
-        <v>0.02385751370564578</v>
+        <v>0.2506424054393204</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4894313333333334</v>
+        <v>466.7532549999999</v>
       </c>
       <c r="H29">
-        <v>1.468294</v>
+        <v>1400.259765</v>
       </c>
       <c r="I29">
-        <v>0.06242894177260313</v>
+        <v>0.9549406025563415</v>
       </c>
       <c r="J29">
-        <v>0.06365638056049407</v>
+        <v>0.9555325630953643</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>14.66498986113433</v>
+        <v>15155.11552257086</v>
       </c>
       <c r="R29">
-        <v>87.98993916680601</v>
+        <v>90930.69313542517</v>
       </c>
       <c r="S29">
-        <v>0.003683031997848035</v>
+        <v>0.05284428354956197</v>
       </c>
       <c r="T29">
-        <v>0.002557309029378673</v>
+        <v>0.03614049404926531</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4894313333333334</v>
+        <v>466.7532549999999</v>
       </c>
       <c r="H30">
-        <v>1.468294</v>
+        <v>1400.259765</v>
       </c>
       <c r="I30">
-        <v>0.06242894177260313</v>
+        <v>0.9549406025563415</v>
       </c>
       <c r="J30">
-        <v>0.06365638056049407</v>
+        <v>0.9555325630953643</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>3.060764233880445</v>
+        <v>24313.28922931561</v>
       </c>
       <c r="R30">
-        <v>27.54687810492401</v>
+        <v>218819.6030638405</v>
       </c>
       <c r="S30">
-        <v>0.000768694197404549</v>
+        <v>0.08477786580662851</v>
       </c>
       <c r="T30">
-        <v>0.0008006128970650698</v>
+        <v>0.08697006796828645</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>466.7532549999999</v>
+      </c>
+      <c r="H31">
+        <v>1400.259765</v>
+      </c>
+      <c r="I31">
+        <v>0.9549406025563415</v>
+      </c>
+      <c r="J31">
+        <v>0.9555325630953643</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>201.5345866666667</v>
+      </c>
+      <c r="N31">
+        <v>604.60376</v>
+      </c>
+      <c r="O31">
+        <v>0.3434783342267227</v>
+      </c>
+      <c r="P31">
+        <v>0.3521417722019025</v>
+      </c>
+      <c r="Q31">
+        <v>94066.92432174625</v>
+      </c>
+      <c r="R31">
+        <v>846602.3188957162</v>
+      </c>
+      <c r="S31">
+        <v>0.3280014074515151</v>
+      </c>
+      <c r="T31">
+        <v>0.3364829301650278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>7.269846</v>
+      </c>
+      <c r="H32">
+        <v>21.809538</v>
+      </c>
+      <c r="I32">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J32">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.836393</v>
+      </c>
+      <c r="N32">
+        <v>21.672786</v>
+      </c>
+      <c r="O32">
+        <v>0.01846862257356514</v>
+      </c>
+      <c r="P32">
+        <v>0.01262296693390161</v>
+      </c>
+      <c r="Q32">
+        <v>78.77890830547801</v>
+      </c>
+      <c r="R32">
+        <v>472.673449832868</v>
+      </c>
+      <c r="S32">
+        <v>0.0002746937139489005</v>
+      </c>
+      <c r="T32">
+        <v>0.0001878645307969762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>7.269846</v>
+      </c>
+      <c r="H33">
+        <v>21.809538</v>
+      </c>
+      <c r="I33">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J33">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N33">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2380839126543345</v>
+      </c>
+      <c r="P33">
+        <v>0.2440890227431923</v>
+      </c>
+      <c r="Q33">
+        <v>1015.5598041649</v>
+      </c>
+      <c r="R33">
+        <v>9140.038237484099</v>
+      </c>
+      <c r="S33">
+        <v>0.003541149532836011</v>
+      </c>
+      <c r="T33">
+        <v>0.003632717250267631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>7.269846</v>
+      </c>
+      <c r="H34">
+        <v>21.809538</v>
+      </c>
+      <c r="I34">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J34">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>150.12088</v>
+      </c>
+      <c r="N34">
+        <v>450.36264</v>
+      </c>
+      <c r="O34">
+        <v>0.2558532043948076</v>
+      </c>
+      <c r="P34">
+        <v>0.2623065033256284</v>
+      </c>
+      <c r="Q34">
+        <v>1091.35567898448</v>
+      </c>
+      <c r="R34">
+        <v>9822.20111086032</v>
+      </c>
+      <c r="S34">
+        <v>0.00380544172479507</v>
+      </c>
+      <c r="T34">
+        <v>0.00390384355994137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>7.269846</v>
+      </c>
+      <c r="H35">
+        <v>21.809538</v>
+      </c>
+      <c r="I35">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J35">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>32.469223</v>
+      </c>
+      <c r="N35">
+        <v>64.938446</v>
+      </c>
+      <c r="O35">
+        <v>0.05533777012737728</v>
+      </c>
+      <c r="P35">
+        <v>0.03782235733776705</v>
+      </c>
+      <c r="Q35">
+        <v>236.046250949658</v>
+      </c>
+      <c r="R35">
+        <v>1416.277505697948</v>
+      </c>
+      <c r="S35">
+        <v>0.0008230682898733057</v>
+      </c>
+      <c r="T35">
+        <v>0.0005629008973961527</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.4894313333333334</v>
-      </c>
-      <c r="H31">
-        <v>1.468294</v>
-      </c>
-      <c r="I31">
-        <v>0.06242894177260313</v>
-      </c>
-      <c r="J31">
-        <v>0.06365638056049407</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>143.6051993333333</v>
-      </c>
-      <c r="N31">
-        <v>430.815598</v>
-      </c>
-      <c r="O31">
-        <v>0.2827480934208786</v>
-      </c>
-      <c r="P31">
-        <v>0.2888103122968479</v>
-      </c>
-      <c r="Q31">
-        <v>70.28488418331246</v>
-      </c>
-      <c r="R31">
-        <v>632.5639576498121</v>
-      </c>
-      <c r="S31">
-        <v>0.01765166426048658</v>
-      </c>
-      <c r="T31">
-        <v>0.01838461914936329</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>7.269846</v>
+      </c>
+      <c r="H36">
+        <v>21.809538</v>
+      </c>
+      <c r="I36">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J36">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>52.09024033333333</v>
+      </c>
+      <c r="N36">
+        <v>156.270721</v>
+      </c>
+      <c r="O36">
+        <v>0.08877815602319267</v>
+      </c>
+      <c r="P36">
+        <v>0.09101737745760805</v>
+      </c>
+      <c r="Q36">
+        <v>378.688025326322</v>
+      </c>
+      <c r="R36">
+        <v>3408.192227936898</v>
+      </c>
+      <c r="S36">
+        <v>0.001320445057470151</v>
+      </c>
+      <c r="T36">
+        <v>0.001354589376648215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>7.269846</v>
+      </c>
+      <c r="H37">
+        <v>21.809538</v>
+      </c>
+      <c r="I37">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J37">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>201.5345866666667</v>
+      </c>
+      <c r="N37">
+        <v>604.60376</v>
+      </c>
+      <c r="O37">
+        <v>0.3434783342267227</v>
+      </c>
+      <c r="P37">
+        <v>0.3521417722019025</v>
+      </c>
+      <c r="Q37">
+        <v>1465.12540874032</v>
+      </c>
+      <c r="R37">
+        <v>13186.12867866288</v>
+      </c>
+      <c r="S37">
+        <v>0.005108737206247801</v>
+      </c>
+      <c r="T37">
+        <v>0.005240839903577121</v>
       </c>
     </row>
   </sheetData>
